--- a/data/mario-castro.xlsx
+++ b/data/mario-castro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eck/work/mario/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53448F13-4A31-0644-98E8-E5AE616265A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B68615-739D-264D-9447-B587BB2BA511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="30140" windowHeight="20500" firstSheet="4" activeTab="7" xr2:uid="{3B6EF040-8E1C-0B4C-84D5-0C4ECB04AC7C}"/>
+    <workbookView xWindow="2520" yWindow="500" windowWidth="30140" windowHeight="20500" firstSheet="4" activeTab="10" xr2:uid="{3B6EF040-8E1C-0B4C-84D5-0C4ECB04AC7C}"/>
   </bookViews>
   <sheets>
     <sheet name="sedov_2d_cyl" sheetId="1" r:id="rId1"/>
@@ -145,13 +145,13 @@
     <t>2. End value</t>
   </si>
   <si>
-    <t>4. Weights for Linear, DataGrowth, Quadratic, Cubic</t>
-  </si>
-  <si>
     <t>3. Number of steps</t>
   </si>
   <si>
     <t>MACSio NEW parameters set</t>
+  </si>
+  <si>
+    <t>4. Weights for Linear, DataGrowth, Quadratic, Cubic --&gt; Can be obtained by MARIO</t>
   </si>
 </sst>
 </file>
@@ -57816,11 +57816,11 @@
         <v>14205053</v>
       </c>
       <c r="E2">
-        <f>$E$34*A2*A2+$B$2</f>
+        <f t="shared" ref="E2:E33" si="0">$E$34*A2*A2+$B$2</f>
         <v>14205053</v>
       </c>
       <c r="F2">
-        <f>$F$34*A2*A2*A2+$B$2</f>
+        <f t="shared" ref="F2:F33" si="1">$F$34*A2*A2*A2+$B$2</f>
         <v>14205053</v>
       </c>
       <c r="G2">
@@ -57845,856 +57845,856 @@
         <v>14388430.129904596</v>
       </c>
       <c r="E3">
-        <f>$E$34*A3*A3+$B$2</f>
+        <f t="shared" si="0"/>
         <v>14212270.654526535</v>
       </c>
       <c r="F3">
-        <f>$F$34*A3*A3*A3+$B$2</f>
+        <f t="shared" si="1"/>
         <v>14205285.827565372</v>
       </c>
       <c r="G3">
-        <f>$G$34*LOG(A3)+$B$2</f>
+        <f t="shared" ref="G3:G33" si="2">$G$34*LOG(A3)+$B$2</f>
         <v>16989139.315995753</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A32" si="0">A3+10</f>
+        <f t="shared" ref="A4:A32" si="3">A3+10</f>
         <v>20</v>
       </c>
       <c r="B4">
         <v>20138313</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C33" si="1">C3+$C$34</f>
+        <f t="shared" ref="C4:C33" si="4">C3+$C$34</f>
         <v>14652547.580645163</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D33" si="2">D3*$D$34</f>
+        <f t="shared" ref="D4:D33" si="5">D3*$D$34</f>
         <v>14574174.528116608</v>
       </c>
       <c r="E4">
-        <f>$E$34*A4*A4+$B$2</f>
+        <f t="shared" si="0"/>
         <v>14233923.61810614</v>
       </c>
       <c r="F4">
-        <f>$F$34*A4*A4*A4+$B$2</f>
+        <f t="shared" si="1"/>
         <v>14206915.620522976</v>
       </c>
       <c r="G4">
-        <f>$G$34*LOG(A4)+$B$2</f>
+        <f t="shared" si="2"/>
         <v>17827232.807628103</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B5">
         <v>21917528</v>
       </c>
       <c r="C5">
+        <f t="shared" si="4"/>
+        <v>14876294.870967744</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="5"/>
+        <v>14762316.754386</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>14270011.890738813</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="1"/>
-        <v>14876294.870967744</v>
-      </c>
-      <c r="D5">
+        <v>14211339.344265046</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="2"/>
-        <v>14762316.754386</v>
-      </c>
-      <c r="E5">
-        <f>$E$34*A5*A5+$B$2</f>
-        <v>14270011.890738813</v>
-      </c>
-      <c r="F5">
-        <f>$F$34*A5*A5*A5+$B$2</f>
-        <v>14211339.344265046</v>
-      </c>
-      <c r="G5">
-        <f>$G$34*LOG(A5)+$B$2</f>
         <v>18317486.072331488</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B6">
         <v>20487920</v>
       </c>
       <c r="C6">
+        <f t="shared" si="4"/>
+        <v>15100042.161290325</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="5"/>
+        <v>14952887.762967372</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>14320535.472424557</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="1"/>
-        <v>15100042.161290325</v>
-      </c>
-      <c r="D6">
+        <v>14219953.964183815</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="2"/>
-        <v>14952887.762967372</v>
-      </c>
-      <c r="E6">
-        <f>$E$34*A6*A6+$B$2</f>
-        <v>14320535.472424557</v>
-      </c>
-      <c r="F6">
-        <f>$F$34*A6*A6*A6+$B$2</f>
-        <v>14219953.964183815</v>
-      </c>
-      <c r="G6">
-        <f>$G$34*LOG(A6)+$B$2</f>
         <v>18665326.299260456</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B7">
         <v>19643340</v>
       </c>
       <c r="C7">
+        <f t="shared" si="4"/>
+        <v>15323789.451612907</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="5"/>
+        <v>15145918.907712733</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>14385494.363163371</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="1"/>
-        <v>15323789.451612907</v>
-      </c>
-      <c r="D7">
+        <v>14234156.445671512</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="2"/>
-        <v>15145918.907712733</v>
-      </c>
-      <c r="E7">
-        <f>$E$34*A7*A7+$B$2</f>
-        <v>14385494.363163371</v>
-      </c>
-      <c r="F7">
-        <f>$F$34*A7*A7*A7+$B$2</f>
-        <v>14234156.445671512</v>
-      </c>
-      <c r="G7">
-        <f>$G$34*LOG(A7)+$B$2</f>
         <v>18935132.140359156</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="B8">
         <v>19073655</v>
       </c>
       <c r="C8">
+        <f t="shared" si="4"/>
+        <v>15547536.741935488</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="5"/>
+        <v>15341441.947230019</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>14464888.562955255</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="1"/>
-        <v>15547536.741935488</v>
-      </c>
-      <c r="D8">
+        <v>14255343.754120372</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="2"/>
-        <v>15341441.947230019</v>
-      </c>
-      <c r="E8">
-        <f>$E$34*A8*A8+$B$2</f>
-        <v>14464888.562955255</v>
-      </c>
-      <c r="F8">
-        <f>$F$34*A8*A8*A8+$B$2</f>
-        <v>14255343.754120372</v>
-      </c>
-      <c r="G8">
-        <f>$G$34*LOG(A8)+$B$2</f>
         <v>19155579.563963842</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="B9">
         <v>21278488</v>
       </c>
       <c r="C9">
+        <f t="shared" si="4"/>
+        <v>15771284.032258069</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="5"/>
+        <v>15539489.050108202</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>14558718.071800208</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="1"/>
-        <v>15771284.032258069</v>
-      </c>
-      <c r="D9">
+        <v>14284912.854922628</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="2"/>
-        <v>15539489.050108202</v>
-      </c>
-      <c r="E9">
-        <f>$E$34*A9*A9+$B$2</f>
-        <v>14558718.071800208</v>
-      </c>
-      <c r="F9">
-        <f>$F$34*A9*A9*A9+$B$2</f>
-        <v>14284912.854922628</v>
-      </c>
-      <c r="G9">
-        <f>$G$34*LOG(A9)+$B$2</f>
         <v>19341965.204874277</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="B10">
         <v>20154833</v>
       </c>
       <c r="C10">
+        <f t="shared" si="4"/>
+        <v>15995031.32258065</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="5"/>
+        <v>15740092.800209856</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>14666982.889698232</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="1"/>
-        <v>15995031.32258065</v>
-      </c>
-      <c r="D10">
+        <v>14324260.713470511</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="2"/>
-        <v>15740092.800209856</v>
-      </c>
-      <c r="E10">
-        <f>$E$34*A10*A10+$B$2</f>
-        <v>14666982.889698232</v>
-      </c>
-      <c r="F10">
-        <f>$F$34*A10*A10*A10+$B$2</f>
-        <v>14324260.713470511</v>
-      </c>
-      <c r="G10">
-        <f>$G$34*LOG(A10)+$B$2</f>
         <v>19503419.790892806</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="B11">
         <v>19690960</v>
       </c>
       <c r="C11">
+        <f t="shared" si="4"/>
+        <v>16218778.612903232</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="5"/>
+        <v>15943286.202032045</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>14789683.016649324</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="1"/>
-        <v>16218778.612903232</v>
-      </c>
-      <c r="D11">
+        <v>14374784.295156255</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="2"/>
-        <v>15943286.202032045</v>
-      </c>
-      <c r="E11">
-        <f>$E$34*A11*A11+$B$2</f>
-        <v>14789683.016649324</v>
-      </c>
-      <c r="F11">
-        <f>$F$34*A11*A11*A11+$B$2</f>
-        <v>14374784.295156255</v>
-      </c>
-      <c r="G11">
-        <f>$G$34*LOG(A11)+$B$2</f>
         <v>19645832.828667227</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B12">
         <v>20055528</v>
       </c>
       <c r="C12">
+        <f t="shared" si="4"/>
+        <v>16442525.903225813</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="5"/>
+        <v>16149102.686136412</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>14926818.452653486</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="1"/>
-        <v>16442525.903225813</v>
-      </c>
-      <c r="D12">
+        <v>14437880.565372093</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="2"/>
-        <v>16149102.686136412</v>
-      </c>
-      <c r="E12">
-        <f>$E$34*A12*A12+$B$2</f>
-        <v>14926818.452653486</v>
-      </c>
-      <c r="F12">
-        <f>$F$34*A12*A12*A12+$B$2</f>
-        <v>14437880.565372093</v>
-      </c>
-      <c r="G12">
-        <f>$G$34*LOG(A12)+$B$2</f>
         <v>19773225.631991506</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="B13">
         <v>20470889</v>
       </c>
       <c r="C13">
+        <f t="shared" si="4"/>
+        <v>16666273.193548394</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="5"/>
+        <v>16357576.114649372</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>15078389.197710719</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="1"/>
-        <v>16666273.193548394</v>
-      </c>
-      <c r="D13">
+        <v>14514946.489510255</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="2"/>
-        <v>16357576.114649372</v>
-      </c>
-      <c r="E13">
-        <f>$E$34*A13*A13+$B$2</f>
-        <v>15078389.197710719</v>
-      </c>
-      <c r="F13">
-        <f>$F$34*A13*A13*A13+$B$2</f>
-        <v>14514946.489510255</v>
-      </c>
-      <c r="G13">
-        <f>$G$34*LOG(A13)+$B$2</f>
         <v>19888466.440322842</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="B14">
         <v>21006140</v>
       </c>
       <c r="C14">
+        <f t="shared" si="4"/>
+        <v>16890020.483870976</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="5"/>
+        <v>16568740.786833305</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>15244395.251821021</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="1"/>
-        <v>16890020.483870976</v>
-      </c>
-      <c r="D14">
+        <v>14607379.032962976</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="2"/>
-        <v>16568740.786833305</v>
-      </c>
-      <c r="E14">
-        <f>$E$34*A14*A14+$B$2</f>
-        <v>15244395.251821021</v>
-      </c>
-      <c r="F14">
-        <f>$F$34*A14*A14*A14+$B$2</f>
-        <v>14607379.032962976</v>
-      </c>
-      <c r="G14">
-        <f>$G$34*LOG(A14)+$B$2</f>
         <v>19993673.055596191</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="B15">
         <v>19683786</v>
       </c>
       <c r="C15">
+        <f t="shared" si="4"/>
+        <v>17113767.774193555</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>16782631.444729671</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>15424836.614984391</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="1"/>
-        <v>17113767.774193555</v>
-      </c>
-      <c r="D15">
+        <v>14716575.161122486</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="2"/>
-        <v>16782631.444729671</v>
-      </c>
-      <c r="E15">
-        <f>$E$34*A15*A15+$B$2</f>
-        <v>15424836.614984391</v>
-      </c>
-      <c r="F15">
-        <f>$F$34*A15*A15*A15+$B$2</f>
-        <v>14716575.161122486</v>
-      </c>
-      <c r="G15">
-        <f>$G$34*LOG(A15)+$B$2</f>
         <v>20090453.759947654</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="B16">
         <v>18967069</v>
       </c>
       <c r="C16">
+        <f t="shared" si="4"/>
+        <v>17337515.064516135</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>16999283.278874967</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>15619713.287200833</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="1"/>
-        <v>17337515.064516135</v>
-      </c>
-      <c r="D16">
+        <v>14843931.839381021</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="2"/>
-        <v>16999283.278874967</v>
-      </c>
-      <c r="E16">
-        <f>$E$34*A16*A16+$B$2</f>
-        <v>15619713.287200833</v>
-      </c>
-      <c r="F16">
-        <f>$F$34*A16*A16*A16+$B$2</f>
-        <v>14843931.839381021</v>
-      </c>
-      <c r="G16">
-        <f>$G$34*LOG(A16)+$B$2</f>
         <v>20180058.696506627</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="B17">
         <v>20797729</v>
       </c>
       <c r="C17">
+        <f t="shared" si="4"/>
+        <v>17561262.354838714</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>17218731.934090495</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>15829025.268470343</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="1"/>
-        <v>17561262.354838714</v>
-      </c>
-      <c r="D17">
+        <v>14990846.033130812</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="2"/>
-        <v>17218731.934090495</v>
-      </c>
-      <c r="E17">
-        <f>$E$34*A17*A17+$B$2</f>
-        <v>15829025.268470343</v>
-      </c>
-      <c r="F17">
-        <f>$F$34*A17*A17*A17+$B$2</f>
-        <v>14990846.033130812</v>
-      </c>
-      <c r="G17">
-        <f>$G$34*LOG(A17)+$B$2</f>
         <v>20263478.896694891</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="B18">
         <v>21343001</v>
       </c>
       <c r="C18">
+        <f t="shared" si="4"/>
+        <v>17785009.645161293</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>17441013.515346836</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>16052772.558792925</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="1"/>
-        <v>17785009.645161293</v>
-      </c>
-      <c r="D18">
+        <v>15158714.707764089</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="2"/>
-        <v>17441013.515346836</v>
-      </c>
-      <c r="E18">
-        <f>$E$34*A18*A18+$B$2</f>
-        <v>16052772.558792925</v>
-      </c>
-      <c r="F18">
-        <f>$F$34*A18*A18*A18+$B$2</f>
-        <v>15158714.707764089</v>
-      </c>
-      <c r="G18">
-        <f>$G$34*LOG(A18)+$B$2</f>
         <v>20341513.282525156</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="B19">
         <v>19334925</v>
       </c>
       <c r="C19">
+        <f t="shared" si="4"/>
+        <v>18008756.935483873</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>17666164.593704063</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>16290955.158168575</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="1"/>
-        <v>18008756.935483873</v>
-      </c>
-      <c r="D19">
+        <v>15348934.828673089</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="2"/>
-        <v>17666164.593704063</v>
-      </c>
-      <c r="E19">
-        <f>$E$34*A19*A19+$B$2</f>
-        <v>16290955.158168575</v>
-      </c>
-      <c r="F19">
-        <f>$F$34*A19*A19*A19+$B$2</f>
-        <v>15348934.828673089</v>
-      </c>
-      <c r="G19">
-        <f>$G$34*LOG(A19)+$B$2</f>
         <v>20414815.32053674</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="B20">
         <v>14606359</v>
       </c>
       <c r="C20">
+        <f t="shared" si="4"/>
+        <v>18232504.225806452</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>17894222.212328624</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>16543573.066597294</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="1"/>
-        <v>18232504.225806452</v>
-      </c>
-      <c r="D20">
+        <v>15562903.361250043</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="2"/>
-        <v>17894222.212328624</v>
-      </c>
-      <c r="E20">
-        <f>$E$34*A20*A20+$B$2</f>
-        <v>16543573.066597294</v>
-      </c>
-      <c r="F20">
-        <f>$F$34*A20*A20*A20+$B$2</f>
-        <v>15562903.361250043</v>
-      </c>
-      <c r="G20">
-        <f>$G$34*LOG(A20)+$B$2</f>
         <v>20483926.320299577</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="B21">
         <v>18457577</v>
       </c>
       <c r="C21">
+        <f t="shared" si="4"/>
+        <v>18456251.516129032</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>18125223.892587889</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>16810626.284079082</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="1"/>
-        <v>18456251.516129032</v>
-      </c>
-      <c r="D21">
+        <v>15802017.270887181</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="2"/>
-        <v>18125223.892587889</v>
-      </c>
-      <c r="E21">
-        <f>$E$34*A21*A21+$B$2</f>
-        <v>16810626.284079082</v>
-      </c>
-      <c r="F21">
-        <f>$F$34*A21*A21*A21+$B$2</f>
-        <v>15802017.270887181</v>
-      </c>
-      <c r="G21">
-        <f>$G$34*LOG(A21)+$B$2</f>
         <v>20549299.717938818</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="B22">
         <v>20683679</v>
       </c>
       <c r="C22">
+        <f t="shared" si="4"/>
+        <v>18679998.806451611</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>18359207.640223395</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>17092114.810613945</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="1"/>
-        <v>18679998.806451611</v>
-      </c>
-      <c r="D22">
+        <v>16067673.522976737</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="2"/>
-        <v>18359207.640223395</v>
-      </c>
-      <c r="E22">
-        <f>$E$34*A22*A22+$B$2</f>
-        <v>17092114.810613945</v>
-      </c>
-      <c r="F22">
-        <f>$F$34*A22*A22*A22+$B$2</f>
-        <v>16067673.522976737</v>
-      </c>
-      <c r="G22">
-        <f>$G$34*LOG(A22)+$B$2</f>
         <v>20611319.123623855</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="B23">
         <v>20024222</v>
       </c>
       <c r="C23">
+        <f t="shared" si="4"/>
+        <v>18903746.096774191</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>18596211.95160377</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>17388038.646201871</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="1"/>
-        <v>18903746.096774191</v>
-      </c>
-      <c r="D23">
+        <v>16361269.082910946</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="2"/>
-        <v>18596211.95160377</v>
-      </c>
-      <c r="E23">
-        <f>$E$34*A23*A23+$B$2</f>
-        <v>17388038.646201871</v>
-      </c>
-      <c r="F23">
-        <f>$F$34*A23*A23*A23+$B$2</f>
-        <v>16361269.082910946</v>
-      </c>
-      <c r="G23">
-        <f>$G$34*LOG(A23)+$B$2</f>
         <v>20670311.961210012</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="B24">
         <v>19694115</v>
       </c>
       <c r="C24">
+        <f t="shared" si="4"/>
+        <v>19127493.38709677</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>18836275.820058372</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>17698397.790842872</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="1"/>
-        <v>19127493.38709677</v>
-      </c>
-      <c r="D24">
+        <v>16684200.916082038</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="2"/>
-        <v>18836275.820058372</v>
-      </c>
-      <c r="E24">
-        <f>$E$34*A24*A24+$B$2</f>
-        <v>17698397.790842872</v>
-      </c>
-      <c r="F24">
-        <f>$F$34*A24*A24*A24+$B$2</f>
-        <v>16684200.916082038</v>
-      </c>
-      <c r="G24">
-        <f>$G$34*LOG(A24)+$B$2</f>
         <v>20726559.931955192</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="B25">
         <v>18914336</v>
       </c>
       <c r="C25">
+        <f t="shared" si="4"/>
+        <v>19351240.67741935</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>19079438.74229271</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>18023192.24453694</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="1"/>
-        <v>19351240.67741935</v>
-      </c>
-      <c r="D25">
+        <v>17037865.987882245</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="2"/>
-        <v>19079438.74229271</v>
-      </c>
-      <c r="E25">
-        <f>$E$34*A25*A25+$B$2</f>
-        <v>18023192.24453694</v>
-      </c>
-      <c r="F25">
-        <f>$F$34*A25*A25*A25+$B$2</f>
-        <v>17037865.987882245</v>
-      </c>
-      <c r="G25">
-        <f>$G$34*LOG(A25)+$B$2</f>
         <v>20780307.150362842</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="B26">
         <v>20348517</v>
       </c>
       <c r="C26">
+        <f t="shared" si="4"/>
+        <v>19574987.967741929</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>19325740.724886663</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>18362422.007284079</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="1"/>
-        <v>19574987.967741929</v>
-      </c>
-      <c r="D26">
+        <v>17423661.263703804</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="2"/>
-        <v>19325740.724886663</v>
-      </c>
-      <c r="E26">
-        <f>$E$34*A26*A26+$B$2</f>
-        <v>18362422.007284079</v>
-      </c>
-      <c r="F26">
-        <f>$F$34*A26*A26*A26+$B$2</f>
-        <v>17423661.263703804</v>
-      </c>
-      <c r="G26">
-        <f>$G$34*LOG(A26)+$B$2</f>
         <v>20831766.547228541</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="B27">
         <v>21345736</v>
       </c>
       <c r="C27">
+        <f t="shared" si="4"/>
+        <v>19798735.258064508</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>19575222.290876605</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>18716087.079084288</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="1"/>
-        <v>19798735.258064508</v>
-      </c>
-      <c r="D27">
+        <v>17842983.708938941</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="2"/>
-        <v>19575222.290876605</v>
-      </c>
-      <c r="E27">
-        <f>$E$34*A27*A27+$B$2</f>
-        <v>18716087.079084288</v>
-      </c>
-      <c r="F27">
-        <f>$F$34*A27*A27*A27+$B$2</f>
-        <v>17842983.708938941</v>
-      </c>
-      <c r="G27">
-        <f>$G$34*LOG(A27)+$B$2</f>
         <v>20881124.964722559</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="B28">
         <v>17551501</v>
       </c>
       <c r="C28">
+        <f t="shared" si="4"/>
+        <v>20022482.548387088</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>19827924.486422475</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>19084187.459937565</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="1"/>
-        <v>20022482.548387088</v>
-      </c>
-      <c r="D28">
+        <v>18297230.288979892</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="2"/>
-        <v>19827924.486422475</v>
-      </c>
-      <c r="E28">
-        <f>$E$34*A28*A28+$B$2</f>
-        <v>19084187.459937565</v>
-      </c>
-      <c r="F28">
-        <f>$F$34*A28*A28*A28+$B$2</f>
-        <v>18297230.288979892</v>
-      </c>
-      <c r="G28">
-        <f>$G$34*LOG(A28)+$B$2</f>
         <v>20928547.251580004</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="B29">
         <v>18339438</v>
       </c>
       <c r="C29">
+        <f t="shared" si="4"/>
+        <v>20246229.838709667</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="5"/>
+        <v>20083888.887560945</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>19466723.149843913</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="1"/>
-        <v>20246229.838709667</v>
-      </c>
-      <c r="D29">
+        <v>18787797.969218891</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="2"/>
-        <v>20083888.887560945</v>
-      </c>
-      <c r="E29">
-        <f>$E$34*A29*A29+$B$2</f>
-        <v>19466723.149843913</v>
-      </c>
-      <c r="F29">
-        <f>$F$34*A29*A29*A29+$B$2</f>
-        <v>18787797.969218891</v>
-      </c>
-      <c r="G29">
-        <f>$G$34*LOG(A29)+$B$2</f>
         <v>20974179.585002962</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="B30">
         <v>19170175</v>
       </c>
       <c r="C30">
+        <f t="shared" si="4"/>
+        <v>20469977.129032247</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>20343157.607045747</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>19863694.148803331</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="1"/>
-        <v>20469977.129032247</v>
-      </c>
-      <c r="D30">
+        <v>19316083.715048168</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="2"/>
-        <v>20343157.607045747</v>
-      </c>
-      <c r="E30">
-        <f>$E$34*A30*A30+$B$2</f>
-        <v>19863694.148803331</v>
-      </c>
-      <c r="F30">
-        <f>$F$34*A30*A30*A30+$B$2</f>
-        <v>19316083.715048168</v>
-      </c>
-      <c r="G30">
-        <f>$G$34*LOG(A30)+$B$2</f>
         <v>21018152.18813898</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
       <c r="B31">
         <v>19199197</v>
       </c>
       <c r="C31">
+        <f t="shared" si="4"/>
+        <v>20693724.419354826</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="5"/>
+        <v>20605773.301276308</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>20275100.456815816</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="1"/>
-        <v>20693724.419354826</v>
-      </c>
-      <c r="D31">
+        <v>19883484.491859958</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="2"/>
-        <v>20605773.301276308</v>
-      </c>
-      <c r="E31">
-        <f>$E$34*A31*A31+$B$2</f>
-        <v>20275100.456815816</v>
-      </c>
-      <c r="F31">
-        <f>$F$34*A31*A31*A31+$B$2</f>
-        <v>19883484.491859958</v>
-      </c>
-      <c r="G31">
-        <f>$G$34*LOG(A31)+$B$2</f>
         <v>21060581.570485823</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="B32">
         <v>19562248</v>
       </c>
       <c r="C32">
+        <f t="shared" si="4"/>
+        <v>20917471.709677406</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="5"/>
+        <v>20871779.177315827</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>20700942.073881373</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="1"/>
-        <v>20917471.709677406</v>
-      </c>
-      <c r="D32">
+        <v>20491397.265046492</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="2"/>
-        <v>20871779.177315827</v>
-      </c>
-      <c r="E32">
-        <f>$E$34*A32*A32+$B$2</f>
-        <v>20700942.073881373</v>
-      </c>
-      <c r="F32">
-        <f>$F$34*A32*A32*A32+$B$2</f>
-        <v>20491397.265046492</v>
-      </c>
-      <c r="G32">
-        <f>$G$34*LOG(A32)+$B$2</f>
         <v>21101572.388327245</v>
       </c>
     </row>
@@ -58706,23 +58706,23 @@
         <v>21141219</v>
       </c>
       <c r="C33">
+        <f t="shared" si="4"/>
+        <v>21141218.999999985</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="5"/>
+        <v>21141218.999999959</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>21141219</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="1"/>
-        <v>21141218.999999985</v>
-      </c>
-      <c r="D33">
+        <v>21141219</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="2"/>
-        <v>21141218.999999959</v>
-      </c>
-      <c r="E33">
-        <f>$E$34*A33*A33+$B$2</f>
-        <v>21141219</v>
-      </c>
-      <c r="F33">
-        <f>$F$34*A33*A33*A33+$B$2</f>
-        <v>21141219</v>
-      </c>
-      <c r="G33">
-        <f>$G$34*LOG(A33)+$B$2</f>
         <v>21141219</v>
       </c>
     </row>
@@ -58774,8 +58774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359CCD7A-3531-8D4E-9AD9-A1475D68F379}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58819,11 +58819,11 @@
         <v>1950295</v>
       </c>
       <c r="E2">
-        <f>$E$28*A2*A2+$B$2</f>
+        <f t="shared" ref="E2:E27" si="0">$E$28*A2*A2+$B$2</f>
         <v>1950295</v>
       </c>
       <c r="F2">
-        <f>$F$28*A2*A2*A2+$B$2</f>
+        <f t="shared" ref="F2:F27" si="1">$F$28*A2*A2*A2+$B$2</f>
         <v>1950295</v>
       </c>
       <c r="G2">
@@ -58840,690 +58840,690 @@
         <v>1950295</v>
       </c>
       <c r="C3">
-        <f>C2+$C$28</f>
+        <f t="shared" ref="C3:C27" si="2">C2+$C$28</f>
         <v>3945997.16</v>
       </c>
       <c r="D3">
-        <f>D2*$D$28</f>
+        <f t="shared" ref="D3:D27" si="3">D2*$D$28</f>
         <v>2223739.1876723017</v>
       </c>
       <c r="E3">
-        <f>$E$28*A3*A3+$B$2</f>
+        <f t="shared" si="0"/>
         <v>2030123.0863999999</v>
       </c>
       <c r="F3">
-        <f>$F$28*A3*A3*A3+$B$2</f>
+        <f t="shared" si="1"/>
         <v>1953488.1234559999</v>
       </c>
       <c r="G3">
-        <f>$G$28*LOG(A3)+$B$2</f>
+        <f t="shared" ref="G3:G27" si="4">$G$28*LOG(A3)+$B$2</f>
         <v>22756717.937840778</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A26" si="0">A3+10</f>
+        <f t="shared" ref="A4:A26" si="5">A3+10</f>
         <v>20</v>
       </c>
       <c r="B4">
         <v>1950295</v>
       </c>
       <c r="C4">
-        <f>C3+$C$28</f>
+        <f t="shared" si="2"/>
         <v>5941699.3200000003</v>
       </c>
       <c r="D4">
-        <f>D3*$D$28</f>
+        <f t="shared" si="3"/>
         <v>2535522.0491205016</v>
       </c>
       <c r="E4">
-        <f>$E$28*A4*A4+$B$2</f>
+        <f t="shared" si="0"/>
         <v>2269607.3456000001</v>
       </c>
       <c r="F4">
-        <f>$F$28*A4*A4*A4+$B$2</f>
+        <f t="shared" si="1"/>
         <v>1975839.987648</v>
       </c>
       <c r="G4">
-        <f>$G$28*LOG(A4)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>29020075.344601948</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B5">
         <v>1950295</v>
       </c>
       <c r="C5">
-        <f>C4+$C$28</f>
+        <f t="shared" si="2"/>
         <v>7937401.4800000004</v>
       </c>
       <c r="D5">
-        <f>D4*$D$28</f>
+        <f t="shared" si="3"/>
         <v>2891018.9185925382</v>
       </c>
       <c r="E5">
-        <f>$E$28*A5*A5+$B$2</f>
+        <f t="shared" si="0"/>
         <v>2668747.7775999997</v>
       </c>
       <c r="F5">
-        <f>$F$28*A5*A5*A5+$B$2</f>
+        <f t="shared" si="1"/>
         <v>2036509.3333119999</v>
       </c>
       <c r="G5">
-        <f>$G$28*LOG(A5)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>32683904.556171335</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="B6">
         <v>2298722</v>
       </c>
       <c r="C6">
-        <f>C5+$C$28</f>
+        <f t="shared" si="2"/>
         <v>9933103.6400000006</v>
       </c>
       <c r="D6">
-        <f>D5*$D$28</f>
+        <f t="shared" si="3"/>
         <v>3296358.7875558455</v>
       </c>
       <c r="E6">
-        <f>$E$28*A6*A6+$B$2</f>
+        <f t="shared" si="0"/>
         <v>3227544.3824</v>
       </c>
       <c r="F6">
-        <f>$F$28*A6*A6*A6+$B$2</f>
+        <f t="shared" si="1"/>
         <v>2154654.9011840001</v>
       </c>
       <c r="G6">
-        <f>$G$28*LOG(A6)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>35283432.751363114</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="B7">
         <v>3134573</v>
       </c>
       <c r="C7">
-        <f>C6+$C$28</f>
+        <f t="shared" si="2"/>
         <v>11928805.800000001</v>
       </c>
       <c r="D7">
-        <f>D6*$D$28</f>
+        <f t="shared" si="3"/>
         <v>3758529.9723969395</v>
       </c>
       <c r="E7">
-        <f>$E$28*A7*A7+$B$2</f>
+        <f t="shared" si="0"/>
         <v>3945997.16</v>
       </c>
       <c r="F7">
-        <f>$F$28*A7*A7*A7+$B$2</f>
+        <f t="shared" si="1"/>
         <v>2349435.432</v>
       </c>
       <c r="G7">
-        <f>$G$28*LOG(A7)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>37299783.468920387</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="B8">
         <v>5363048</v>
       </c>
       <c r="C8">
-        <f>C7+$C$28</f>
+        <f t="shared" si="2"/>
         <v>13924507.960000001</v>
       </c>
       <c r="D8">
-        <f>D7*$D$28</f>
+        <f t="shared" si="3"/>
         <v>4285500.5974275526</v>
       </c>
       <c r="E8">
-        <f>$E$28*A8*A8+$B$2</f>
+        <f t="shared" si="0"/>
         <v>4824106.1103999997</v>
       </c>
       <c r="F8">
-        <f>$F$28*A8*A8*A8+$B$2</f>
+        <f t="shared" si="1"/>
         <v>2640009.6664960003</v>
       </c>
       <c r="G8">
-        <f>$G$28*LOG(A8)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>38947261.962932505</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="B9">
         <v>6268264</v>
       </c>
       <c r="C9">
-        <f>C8+$C$28</f>
+        <f t="shared" si="2"/>
         <v>15920210.120000001</v>
       </c>
       <c r="D9">
-        <f>D8*$D$28</f>
+        <f t="shared" si="3"/>
         <v>4886355.9704007395</v>
       </c>
       <c r="E9">
-        <f>$E$28*A9*A9+$B$2</f>
+        <f t="shared" si="0"/>
         <v>5861871.2335999999</v>
       </c>
       <c r="F9">
-        <f>$F$28*A9*A9*A9+$B$2</f>
+        <f t="shared" si="1"/>
         <v>3045536.3454080001</v>
       </c>
       <c r="G9">
-        <f>$G$28*LOG(A9)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>40340185.182317697</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="B10">
         <v>9123176</v>
       </c>
       <c r="C10">
-        <f>C9+$C$28</f>
+        <f t="shared" si="2"/>
         <v>17915912.280000001</v>
       </c>
       <c r="D10">
-        <f>D9*$D$28</f>
+        <f t="shared" si="3"/>
         <v>5571455.218977971</v>
       </c>
       <c r="E10">
-        <f>$E$28*A10*A10+$B$2</f>
+        <f t="shared" si="0"/>
         <v>7059292.5296</v>
       </c>
       <c r="F10">
-        <f>$F$28*A10*A10*A10+$B$2</f>
+        <f t="shared" si="1"/>
         <v>3585174.2094720001</v>
       </c>
       <c r="G10">
-        <f>$G$28*LOG(A10)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>41546790.158124283</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="B11">
         <v>11699560</v>
       </c>
       <c r="C11">
-        <f>C10+$C$28</f>
+        <f t="shared" si="2"/>
         <v>19911614.440000001</v>
       </c>
       <c r="D11">
-        <f>D10*$D$28</f>
+        <f t="shared" si="3"/>
         <v>6352609.8886592435</v>
       </c>
       <c r="E11">
-        <f>$E$28*A11*A11+$B$2</f>
+        <f t="shared" si="0"/>
         <v>8416369.998399999</v>
       </c>
       <c r="F11">
-        <f>$F$28*A11*A11*A11+$B$2</f>
+        <f t="shared" si="1"/>
         <v>4278081.9994240003</v>
       </c>
       <c r="G11">
-        <f>$G$28*LOG(A11)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>42611091.174501896</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="B12">
         <v>13161832</v>
       </c>
       <c r="C12">
-        <f>C11+$C$28</f>
+        <f t="shared" si="2"/>
         <v>21907316.600000001</v>
       </c>
       <c r="D12">
-        <f>D11*$D$28</f>
+        <f t="shared" si="3"/>
         <v>7243287.5813177684</v>
       </c>
       <c r="E12">
-        <f>$E$28*A12*A12+$B$2</f>
+        <f t="shared" si="0"/>
         <v>9933103.6400000006</v>
       </c>
       <c r="F12">
-        <f>$F$28*A12*A12*A12+$B$2</f>
+        <f t="shared" si="1"/>
         <v>5143418.4560000002</v>
       </c>
       <c r="G12">
-        <f>$G$28*LOG(A12)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>43563140.875681557</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="B13">
         <v>15668584</v>
       </c>
       <c r="C13">
-        <f>C12+$C$28</f>
+        <f t="shared" si="2"/>
         <v>23903018.760000002</v>
       </c>
       <c r="D13">
-        <f>D12*$D$28</f>
+        <f t="shared" si="3"/>
         <v>8258844.1451967247</v>
       </c>
       <c r="E13">
-        <f>$E$28*A13*A13+$B$2</f>
+        <f t="shared" si="0"/>
         <v>11609493.454399999</v>
       </c>
       <c r="F13">
-        <f>$F$28*A13*A13*A13+$B$2</f>
+        <f t="shared" si="1"/>
         <v>6200342.3199359998</v>
       </c>
       <c r="G13">
-        <f>$G$28*LOG(A13)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>44424374.58961647</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="B14">
         <v>17409384</v>
       </c>
       <c r="C14">
-        <f>C13+$C$28</f>
+        <f t="shared" si="2"/>
         <v>25898720.920000002</v>
       </c>
       <c r="D14">
-        <f>D13*$D$28</f>
+        <f t="shared" si="3"/>
         <v>9416788.4194708541</v>
       </c>
       <c r="E14">
-        <f>$E$28*A14*A14+$B$2</f>
+        <f t="shared" si="0"/>
         <v>13445539.441599999</v>
       </c>
       <c r="F14">
-        <f>$F$28*A14*A14*A14+$B$2</f>
+        <f t="shared" si="1"/>
         <v>7468012.3319680002</v>
       </c>
       <c r="G14">
-        <f>$G$28*LOG(A14)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>45210619.369693667</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="B15">
         <v>22979948</v>
       </c>
       <c r="C15">
-        <f>C14+$C$28</f>
+        <f t="shared" si="2"/>
         <v>27894423.080000002</v>
       </c>
       <c r="D15">
-        <f>D14*$D$28</f>
+        <f t="shared" si="3"/>
         <v>10737084.097737037</v>
       </c>
       <c r="E15">
-        <f>$E$28*A15*A15+$B$2</f>
+        <f t="shared" si="0"/>
         <v>15441241.601599999</v>
       </c>
       <c r="F15">
-        <f>$F$28*A15*A15*A15+$B$2</f>
+        <f t="shared" si="1"/>
         <v>8965587.2328319997</v>
       </c>
       <c r="G15">
-        <f>$G$28*LOG(A15)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>45933894.454732999</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="B16">
         <v>22979948</v>
       </c>
       <c r="C16">
-        <f>C15+$C$28</f>
+        <f t="shared" si="2"/>
         <v>29890125.240000002</v>
       </c>
       <c r="D16">
-        <f>D15*$D$28</f>
+        <f t="shared" si="3"/>
         <v>12242493.914751844</v>
       </c>
       <c r="E16">
-        <f>$E$28*A16*A16+$B$2</f>
+        <f t="shared" si="0"/>
         <v>17596599.9344</v>
       </c>
       <c r="F16">
-        <f>$F$28*A16*A16*A16+$B$2</f>
+        <f t="shared" si="1"/>
         <v>10712225.763264</v>
       </c>
       <c r="G16">
-        <f>$G$28*LOG(A16)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>46603542.589078866</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="B17">
         <v>26322284</v>
       </c>
       <c r="C17">
-        <f>C16+$C$28</f>
+        <f t="shared" si="2"/>
         <v>31885827.400000002</v>
       </c>
       <c r="D17">
-        <f>D16*$D$28</f>
+        <f t="shared" si="3"/>
         <v>13958972.090413688</v>
       </c>
       <c r="E17">
-        <f>$E$28*A17*A17+$B$2</f>
+        <f t="shared" si="0"/>
         <v>19911614.439999998</v>
       </c>
       <c r="F17">
-        <f>$F$28*A17*A17*A17+$B$2</f>
+        <f t="shared" si="1"/>
         <v>12727086.663999999</v>
       </c>
       <c r="G17">
-        <f>$G$28*LOG(A17)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>47226970.087250948</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="B18">
         <v>28620140</v>
       </c>
       <c r="C18">
-        <f>C17+$C$28</f>
+        <f t="shared" si="2"/>
         <v>33881529.560000002</v>
       </c>
       <c r="D18">
-        <f>D17*$D$28</f>
+        <f t="shared" si="3"/>
         <v>15916111.796972698</v>
       </c>
       <c r="E18">
-        <f>$E$28*A18*A18+$B$2</f>
+        <f t="shared" si="0"/>
         <v>22386285.1184</v>
       </c>
       <c r="F18">
-        <f>$F$28*A18*A18*A18+$B$2</f>
+        <f t="shared" si="1"/>
         <v>15029328.675776001</v>
       </c>
       <c r="G18">
-        <f>$G$28*LOG(A18)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>47810147.564885445</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="B19">
         <v>33146220</v>
       </c>
       <c r="C19">
-        <f>C18+$C$28</f>
+        <f t="shared" si="2"/>
         <v>35877231.719999999</v>
       </c>
       <c r="D19">
-        <f>D18*$D$28</f>
+        <f t="shared" si="3"/>
         <v>18147655.36408677</v>
       </c>
       <c r="E19">
-        <f>$E$28*A19*A19+$B$2</f>
+        <f t="shared" si="0"/>
         <v>25020611.969599999</v>
       </c>
       <c r="F19">
-        <f>$F$28*A19*A19*A19+$B$2</f>
+        <f t="shared" si="1"/>
         <v>17638110.539328001</v>
       </c>
       <c r="G19">
-        <f>$G$28*LOG(A19)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>48357958.599447146</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="B20">
         <v>35722604</v>
       </c>
       <c r="C20">
-        <f>C19+$C$28</f>
+        <f t="shared" si="2"/>
         <v>37872933.879999995</v>
       </c>
       <c r="D20">
-        <f>D19*$D$28</f>
+        <f t="shared" si="3"/>
         <v>20692076.017982513</v>
       </c>
       <c r="E20">
-        <f>$E$28*A20*A20+$B$2</f>
+        <f t="shared" si="0"/>
         <v>27814594.9936</v>
       </c>
       <c r="F20">
-        <f>$F$28*A20*A20*A20+$B$2</f>
+        <f t="shared" si="1"/>
         <v>20572590.995392002</v>
       </c>
       <c r="G20">
-        <f>$G$28*LOG(A20)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>48874448.581263058</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="B21">
         <v>39900520</v>
       </c>
       <c r="C21">
-        <f>C20+$C$28</f>
+        <f t="shared" si="2"/>
         <v>39868636.039999992</v>
       </c>
       <c r="D21">
-        <f>D20*$D$28</f>
+        <f t="shared" si="3"/>
         <v>23593241.184273124</v>
       </c>
       <c r="E21">
-        <f>$E$28*A21*A21+$B$2</f>
+        <f t="shared" si="0"/>
         <v>30768234.190400001</v>
       </c>
       <c r="F21">
-        <f>$F$28*A21*A21*A21+$B$2</f>
+        <f t="shared" si="1"/>
         <v>23851928.784704</v>
       </c>
       <c r="G21">
-        <f>$G$28*LOG(A21)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>49363006.192552209</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="B22">
         <v>42755432</v>
       </c>
       <c r="C22">
-        <f>C21+$C$28</f>
+        <f t="shared" si="2"/>
         <v>41864338.199999988</v>
       </c>
       <c r="D22">
-        <f>D21*$D$28</f>
+        <f t="shared" si="3"/>
         <v>26901168.790194411</v>
       </c>
       <c r="E22">
-        <f>$E$28*A22*A22+$B$2</f>
+        <f t="shared" si="0"/>
         <v>33881529.560000002</v>
       </c>
       <c r="F22">
-        <f>$F$28*A22*A22*A22+$B$2</f>
+        <f t="shared" si="1"/>
         <v>27495282.648000002</v>
       </c>
       <c r="G22">
-        <f>$G$28*LOG(A22)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>49826498.282442726</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="B23">
         <v>42755432</v>
       </c>
       <c r="C23">
-        <f>C22+$C$28</f>
+        <f t="shared" si="2"/>
         <v>43860040.359999985</v>
       </c>
       <c r="D23">
-        <f>D22*$D$28</f>
+        <f t="shared" si="3"/>
         <v>30672889.605389133</v>
       </c>
       <c r="E23">
-        <f>$E$28*A23*A23+$B$2</f>
+        <f t="shared" si="0"/>
         <v>37154481.102399997</v>
       </c>
       <c r="F23">
-        <f>$F$28*A23*A23*A23+$B$2</f>
+        <f t="shared" si="1"/>
         <v>31521811.326016001</v>
       </c>
       <c r="G23">
-        <f>$G$28*LOG(A23)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>50267371.80064825</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>220</v>
       </c>
       <c r="B24">
         <v>44688159</v>
       </c>
       <c r="C24">
-        <f>C23+$C$28</f>
+        <f t="shared" si="2"/>
         <v>45855742.519999981</v>
       </c>
       <c r="D24">
-        <f>D23*$D$28</f>
+        <f t="shared" si="3"/>
         <v>34973430.488541588</v>
       </c>
       <c r="E24">
-        <f>$E$28*A24*A24+$B$2</f>
+        <f t="shared" si="0"/>
         <v>40587088.817599997</v>
       </c>
       <c r="F24">
-        <f>$F$28*A24*A24*A24+$B$2</f>
+        <f t="shared" si="1"/>
         <v>35950673.559487998</v>
       </c>
       <c r="G24">
-        <f>$G$28*LOG(A24)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>50687731.996377639</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>230</v>
       </c>
       <c r="B25">
         <v>47073145</v>
       </c>
       <c r="C25">
-        <f>C24+$C$28</f>
+        <f t="shared" si="2"/>
         <v>47851444.679999977</v>
       </c>
       <c r="D25">
-        <f>D24*$D$28</f>
+        <f t="shared" si="3"/>
         <v>39876935.491658024</v>
       </c>
       <c r="E25">
-        <f>$E$28*A25*A25+$B$2</f>
+        <f t="shared" si="0"/>
         <v>44179352.705599993</v>
       </c>
       <c r="F25">
-        <f>$F$28*A25*A25*A25+$B$2</f>
+        <f t="shared" si="1"/>
         <v>40801028.089151993</v>
       </c>
       <c r="G25">
-        <f>$G$28*LOG(A25)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>51089403.220253512</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="B26">
         <v>50972536</v>
       </c>
       <c r="C26">
-        <f>C25+$C$28</f>
+        <f t="shared" si="2"/>
         <v>49847146.839999974</v>
       </c>
       <c r="D26">
-        <f>D25*$D$28</f>
+        <f t="shared" si="3"/>
         <v>45467944.150541529</v>
       </c>
       <c r="E26">
-        <f>$E$28*A26*A26+$B$2</f>
+        <f t="shared" si="0"/>
         <v>47931272.766399994</v>
       </c>
       <c r="F26">
-        <f>$F$28*A26*A26*A26+$B$2</f>
+        <f t="shared" si="1"/>
         <v>46092033.655744001</v>
       </c>
       <c r="G26">
-        <f>$G$28*LOG(A26)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>51473976.776454836</v>
       </c>
     </row>
@@ -59535,23 +59535,23 @@
         <v>51842849</v>
       </c>
       <c r="C27">
-        <f>C26+$C$28</f>
+        <f t="shared" si="2"/>
         <v>51842848.99999997</v>
       </c>
       <c r="D27">
-        <f>D26*$D$28</f>
+        <f t="shared" si="3"/>
         <v>51842848.999999903</v>
       </c>
       <c r="E27">
-        <f>$E$28*A27*A27+$B$2</f>
+        <f t="shared" si="0"/>
         <v>51842849</v>
       </c>
       <c r="F27">
-        <f>$F$28*A27*A27*A27+$B$2</f>
+        <f t="shared" si="1"/>
         <v>51842849</v>
       </c>
       <c r="G27">
-        <f>$G$28*LOG(A27)+$B$2</f>
+        <f t="shared" si="4"/>
         <v>51842848.999999993</v>
       </c>
     </row>
@@ -63287,8 +63287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED168DF-D657-CE4E-AB8F-416315954B6B}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -64507,7 +64507,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -64522,12 +64522,12 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -66907,7 +66907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F57DD01-D212-A341-9B93-1EDA1DA85900}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
@@ -68040,11 +68040,11 @@
         <v>4804988</v>
       </c>
       <c r="E2">
-        <f>$E$34*A2*A2+$B$2</f>
+        <f t="shared" ref="E2:E33" si="0">$E$34*A2*A2+$B$2</f>
         <v>4804988</v>
       </c>
       <c r="F2">
-        <f>$F$34*A2*A2*A2+$B$2</f>
+        <f t="shared" ref="F2:F33" si="1">$F$34*A2*A2*A2+$B$2</f>
         <v>4804988</v>
       </c>
       <c r="G2">
@@ -68069,856 +68069,856 @@
         <v>5473817.3732775506</v>
       </c>
       <c r="E3">
-        <f>$E$34*A3*A3+$B$2</f>
+        <f t="shared" si="0"/>
         <v>5084111.2819979191</v>
       </c>
       <c r="F3">
-        <f>$F$34*A3*A3*A3+$B$2</f>
+        <f t="shared" si="1"/>
         <v>4813991.9768386427</v>
       </c>
       <c r="G3">
-        <f>$G$34*LOG(A3)+$B$2</f>
+        <f t="shared" ref="G3:G33" si="2">$G$34*LOG(A3)+$B$2</f>
         <v>112472001.85184072</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A32" si="0">A3+10</f>
+        <f t="shared" ref="A4:A32" si="3">A3+10</f>
         <v>20</v>
       </c>
       <c r="B4">
         <v>20650161</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C33" si="1">C3+$C$34</f>
+        <f t="shared" ref="C4:C33" si="4">C3+$C$34</f>
         <v>22110631.483870968</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D33" si="2">D3*$D$34</f>
+        <f t="shared" ref="D4:D33" si="5">D3*$D$34</f>
         <v>6235744.3215248706</v>
       </c>
       <c r="E4">
-        <f>$E$34*A4*A4+$B$2</f>
+        <f t="shared" si="0"/>
         <v>5921481.1279916754</v>
       </c>
       <c r="F4">
-        <f>$F$34*A4*A4*A4+$B$2</f>
+        <f t="shared" si="1"/>
         <v>4877019.81470914</v>
       </c>
       <c r="G4">
-        <f>$G$34*LOG(A4)+$B$2</f>
+        <f t="shared" si="2"/>
         <v>144883002.56481415</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B5">
         <v>25240522</v>
       </c>
       <c r="C5">
+        <f t="shared" si="4"/>
+        <v>30763453.225806452</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="5"/>
+        <v>7103727.543644161</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>7317097.5379812699</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="1"/>
-        <v>30763453.225806452</v>
-      </c>
-      <c r="D5">
+        <v>5048095.3746433491</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="2"/>
-        <v>7103727.543644161</v>
-      </c>
-      <c r="E5">
-        <f>$E$34*A5*A5+$B$2</f>
-        <v>7317097.5379812699</v>
-      </c>
-      <c r="F5">
-        <f>$F$34*A5*A5*A5+$B$2</f>
-        <v>5048095.3746433491</v>
-      </c>
-      <c r="G5">
-        <f>$G$34*LOG(A5)+$B$2</f>
         <v>163842222.59275022</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B6">
         <v>36713579</v>
       </c>
       <c r="C6">
+        <f t="shared" si="4"/>
+        <v>39416274.967741936</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="5"/>
+        <v>8092529.5221194457</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>9270960.5119667016</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="1"/>
-        <v>39416274.967741936</v>
-      </c>
-      <c r="D6">
+        <v>5381242.5176731227</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="2"/>
-        <v>8092529.5221194457</v>
-      </c>
-      <c r="E6">
-        <f>$E$34*A6*A6+$B$2</f>
-        <v>9270960.5119667016</v>
-      </c>
-      <c r="F6">
-        <f>$F$34*A6*A6*A6+$B$2</f>
-        <v>5381242.5176731227</v>
-      </c>
-      <c r="G6">
-        <f>$G$34*LOG(A6)+$B$2</f>
         <v>177294003.27778754</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B7">
         <v>44742443</v>
       </c>
       <c r="C7">
+        <f t="shared" si="4"/>
+        <v>48069096.709677421</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="5"/>
+        <v>9218967.6003226023</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>11783070.049947971</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="1"/>
-        <v>48069096.709677421</v>
-      </c>
-      <c r="D7">
+        <v>5930485.1048303181</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="2"/>
-        <v>9218967.6003226023</v>
-      </c>
-      <c r="E7">
-        <f>$E$34*A7*A7+$B$2</f>
-        <v>11783070.049947971</v>
-      </c>
-      <c r="F7">
-        <f>$F$34*A7*A7*A7+$B$2</f>
-        <v>5930485.1048303181</v>
-      </c>
-      <c r="G7">
-        <f>$G$34*LOG(A7)+$B$2</f>
         <v>187728014.99070802</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="B8">
         <v>56215500</v>
       </c>
       <c r="C8">
+        <f t="shared" si="4"/>
+        <v>56721918.451612905</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="5"/>
+        <v>10502200.008476341</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>14853426.151925078</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="1"/>
-        <v>56721918.451612905</v>
-      </c>
-      <c r="D8">
+        <v>6749846.9971467899</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="2"/>
-        <v>10502200.008476341</v>
-      </c>
-      <c r="E8">
-        <f>$E$34*A8*A8+$B$2</f>
-        <v>14853426.151925078</v>
-      </c>
-      <c r="F8">
-        <f>$F$34*A8*A8*A8+$B$2</f>
-        <v>6749846.9971467899</v>
-      </c>
-      <c r="G8">
-        <f>$G$34*LOG(A8)+$B$2</f>
         <v>196253223.30572367</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="B9">
         <v>60805861</v>
       </c>
       <c r="C9">
+        <f t="shared" si="4"/>
+        <v>65374740.193548389</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="5"/>
+        <v>11964051.702945655</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>18482028.81789802</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="1"/>
-        <v>65374740.193548389</v>
-      </c>
-      <c r="D9">
+        <v>7893352.0556543926</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="2"/>
-        <v>11964051.702945655</v>
-      </c>
-      <c r="E9">
-        <f>$E$34*A9*A9+$B$2</f>
-        <v>18482028.81789802</v>
-      </c>
-      <c r="F9">
-        <f>$F$34*A9*A9*A9+$B$2</f>
-        <v>7893352.0556543926</v>
-      </c>
-      <c r="G9">
-        <f>$G$34*LOG(A9)+$B$2</f>
         <v>203461184.23221916</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="B10">
         <v>73424374</v>
       </c>
       <c r="C10">
+        <f t="shared" si="4"/>
+        <v>74027561.935483873</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="5"/>
+        <v>13629385.560666289</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>22668878.047866806</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="1"/>
-        <v>74027561.935483873</v>
-      </c>
-      <c r="D10">
+        <v>9415024.1413849816</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="2"/>
-        <v>13629385.560666289</v>
-      </c>
-      <c r="E10">
-        <f>$E$34*A10*A10+$B$2</f>
-        <v>22668878.047866806</v>
-      </c>
-      <c r="F10">
-        <f>$F$34*A10*A10*A10+$B$2</f>
-        <v>9415024.1413849816</v>
-      </c>
-      <c r="G10">
-        <f>$G$34*LOG(A10)+$B$2</f>
         <v>209705003.99076095</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="B11">
         <v>80307070</v>
       </c>
       <c r="C11">
+        <f t="shared" si="4"/>
+        <v>82680383.677419364</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="5"/>
+        <v>15526525.241909726</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>27413973.841831427</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="1"/>
-        <v>82680383.677419364</v>
-      </c>
-      <c r="D11">
+        <v>11368887.115370415</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="2"/>
-        <v>15526525.241909726</v>
-      </c>
-      <c r="E11">
-        <f>$E$34*A11*A11+$B$2</f>
-        <v>27413973.841831427</v>
-      </c>
-      <c r="F11">
-        <f>$F$34*A11*A11*A11+$B$2</f>
-        <v>11368887.115370415</v>
-      </c>
-      <c r="G11">
-        <f>$G$34*LOG(A11)+$B$2</f>
         <v>215212443.33365977</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B12">
         <v>84897431</v>
       </c>
       <c r="C12">
+        <f t="shared" si="4"/>
+        <v>91333205.419354856</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="5"/>
+        <v>17687736.913348772</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>32717316.199791886</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="1"/>
-        <v>91333205.419354856</v>
-      </c>
-      <c r="D12">
+        <v>13808964.838642543</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="2"/>
-        <v>17687736.913348772</v>
-      </c>
-      <c r="E12">
-        <f>$E$34*A12*A12+$B$2</f>
-        <v>32717316.199791886</v>
-      </c>
-      <c r="F12">
-        <f>$F$34*A12*A12*A12+$B$2</f>
-        <v>13808964.838642543</v>
-      </c>
-      <c r="G12">
-        <f>$G$34*LOG(A12)+$B$2</f>
         <v>220139015.70368144</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="B13">
         <v>97516656</v>
       </c>
       <c r="C13">
+        <f t="shared" si="4"/>
+        <v>99986027.161290348</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="5"/>
+        <v>20149778.024471894</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>38578905.121748179</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="1"/>
-        <v>99986027.161290348</v>
-      </c>
-      <c r="D13">
+        <v>16789281.172233224</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="2"/>
-        <v>20149778.024471894</v>
-      </c>
-      <c r="E13">
-        <f>$E$34*A13*A13+$B$2</f>
-        <v>38578905.121748179</v>
-      </c>
-      <c r="F13">
-        <f>$F$34*A13*A13*A13+$B$2</f>
-        <v>16789281.172233224</v>
-      </c>
-      <c r="G13">
-        <f>$G$34*LOG(A13)+$B$2</f>
         <v>224595642.50997692</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="B14">
         <v>104399352</v>
       </c>
       <c r="C14">
+        <f t="shared" si="4"/>
+        <v>108638848.90322584</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="5"/>
+        <v>22954522.470824163</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>44998740.607700311</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="1"/>
-        <v>108638848.90322584</v>
-      </c>
-      <c r="D14">
+        <v>20363859.977174319</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="2"/>
-        <v>22954522.470824163</v>
-      </c>
-      <c r="E14">
-        <f>$E$34*A14*A14+$B$2</f>
-        <v>44998740.607700311</v>
-      </c>
-      <c r="F14">
-        <f>$F$34*A14*A14*A14+$B$2</f>
-        <v>20363859.977174319</v>
-      </c>
-      <c r="G14">
-        <f>$G$34*LOG(A14)+$B$2</f>
         <v>228664224.01869705</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="B15">
         <v>117017873</v>
       </c>
       <c r="C15">
+        <f t="shared" si="4"/>
+        <v>117291670.64516133</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>26149672.776724361</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>51976822.65764828</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="1"/>
-        <v>117291670.64516133</v>
-      </c>
-      <c r="D15">
+        <v>24586725.114497665</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="2"/>
-        <v>26149672.776724361</v>
-      </c>
-      <c r="E15">
-        <f>$E$34*A15*A15+$B$2</f>
-        <v>51976822.65764828</v>
-      </c>
-      <c r="F15">
-        <f>$F$34*A15*A15*A15+$B$2</f>
-        <v>24586725.114497665</v>
-      </c>
-      <c r="G15">
-        <f>$G$34*LOG(A15)+$B$2</f>
         <v>232406956.19482681</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="B16">
         <v>121608234</v>
       </c>
       <c r="C16">
+        <f t="shared" si="4"/>
+        <v>125944492.38709682</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>29789571.410117324</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>59513151.271592088</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="1"/>
-        <v>125944492.38709682</v>
-      </c>
-      <c r="D16">
+        <v>29511900.445235141</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="2"/>
-        <v>29789571.410117324</v>
-      </c>
-      <c r="E16">
-        <f>$E$34*A16*A16+$B$2</f>
-        <v>59513151.271592088</v>
-      </c>
-      <c r="F16">
-        <f>$F$34*A16*A16*A16+$B$2</f>
-        <v>29511900.445235141</v>
-      </c>
-      <c r="G16">
-        <f>$G$34*LOG(A16)+$B$2</f>
         <v>235872184.94519258</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="B17">
         <v>133081291</v>
       </c>
       <c r="C17">
+        <f t="shared" si="4"/>
+        <v>134597314.12903231</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>33936125.028239913</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>67607726.449531734</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="1"/>
-        <v>134597314.12903231</v>
-      </c>
-      <c r="D17">
+        <v>35193409.830418579</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="2"/>
-        <v>33936125.028239913</v>
-      </c>
-      <c r="E17">
-        <f>$E$34*A17*A17+$B$2</f>
-        <v>67607726.449531734</v>
-      </c>
-      <c r="F17">
-        <f>$F$34*A17*A17*A17+$B$2</f>
-        <v>35193409.830418579</v>
-      </c>
-      <c r="G17">
-        <f>$G$34*LOG(A17)+$B$2</f>
         <v>239098235.73161757</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="B18">
         <v>141110155</v>
       </c>
       <c r="C18">
+        <f t="shared" si="4"/>
+        <v>143250135.87096781</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>38659857.373483293</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>76260548.191467226</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="1"/>
-        <v>143250135.87096781</v>
-      </c>
-      <c r="D18">
+        <v>41685277.131079853</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="2"/>
-        <v>38659857.373483293</v>
-      </c>
-      <c r="E18">
-        <f>$E$34*A18*A18+$B$2</f>
-        <v>76260548.191467226</v>
-      </c>
-      <c r="F18">
-        <f>$F$34*A18*A18*A18+$B$2</f>
-        <v>41685277.131079853</v>
-      </c>
-      <c r="G18">
-        <f>$G$34*LOG(A18)+$B$2</f>
         <v>242116004.70373437</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="B19">
         <v>152583212</v>
       </c>
       <c r="C19">
+        <f t="shared" si="4"/>
+        <v>151902957.6129033</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>44041108.726890698</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>85471616.49739854</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="1"/>
-        <v>151902957.6129033</v>
-      </c>
-      <c r="D19">
+        <v>49041526.208250821</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="2"/>
-        <v>44041108.726890698</v>
-      </c>
-      <c r="E19">
-        <f>$E$34*A19*A19+$B$2</f>
-        <v>85471616.49739854</v>
-      </c>
-      <c r="F19">
-        <f>$F$34*A19*A19*A19+$B$2</f>
-        <v>49041526.208250821</v>
-      </c>
-      <c r="G19">
-        <f>$G$34*LOG(A19)+$B$2</f>
         <v>244950762.91385782</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="B20">
         <v>157173573</v>
       </c>
       <c r="C20">
+        <f t="shared" si="4"/>
+        <v>160555779.35483879</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>50171402.319352277</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>95240931.367325708</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="1"/>
-        <v>160555779.35483879</v>
-      </c>
-      <c r="D20">
+        <v>57316180.922963314</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="2"/>
-        <v>50171402.319352277</v>
-      </c>
-      <c r="E20">
-        <f>$E$34*A20*A20+$B$2</f>
-        <v>95240931.367325708</v>
-      </c>
-      <c r="F20">
-        <f>$F$34*A20*A20*A20+$B$2</f>
-        <v>57316180.922963314</v>
-      </c>
-      <c r="G20">
-        <f>$G$34*LOG(A20)+$B$2</f>
         <v>247623444.04663315</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="B21">
         <v>169792078</v>
       </c>
       <c r="C21">
+        <f t="shared" si="4"/>
+        <v>169208601.09677428</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>57155000.940141395</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>105568492.80124868</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="1"/>
-        <v>169208601.09677428</v>
-      </c>
-      <c r="D21">
+        <v>66563265.1362492</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="2"/>
-        <v>57155000.940141395</v>
-      </c>
-      <c r="E21">
-        <f>$E$34*A21*A21+$B$2</f>
-        <v>105568492.80124868</v>
-      </c>
-      <c r="F21">
-        <f>$F$34*A21*A21*A21+$B$2</f>
-        <v>66563265.1362492</v>
-      </c>
-      <c r="G21">
-        <f>$G$34*LOG(A21)+$B$2</f>
         <v>250151583.51872015</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="B22">
         <v>176674774</v>
       </c>
       <c r="C22">
+        <f t="shared" si="4"/>
+        <v>177861422.83870977</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>65110680.217274368</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>116454300.79916754</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="1"/>
-        <v>177861422.83870977</v>
-      </c>
-      <c r="D22">
+        <v>76836802.709140345</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="2"/>
-        <v>65110680.217274368</v>
-      </c>
-      <c r="E22">
-        <f>$E$34*A22*A22+$B$2</f>
-        <v>116454300.79916754</v>
-      </c>
-      <c r="F22">
-        <f>$F$34*A22*A22*A22+$B$2</f>
-        <v>76836802.709140345</v>
-      </c>
-      <c r="G22">
-        <f>$G$34*LOG(A22)+$B$2</f>
         <v>252550016.41665486</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="B23">
         <v>181265135</v>
       </c>
       <c r="C23">
+        <f t="shared" si="4"/>
+        <v>186514244.58064526</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>74173748.729286194</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>127898355.3610822</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="1"/>
-        <v>186514244.58064526</v>
-      </c>
-      <c r="D23">
+        <v>88190817.502668589</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="2"/>
-        <v>74173748.729286194</v>
-      </c>
-      <c r="E23">
-        <f>$E$34*A23*A23+$B$2</f>
-        <v>127898355.3610822</v>
-      </c>
-      <c r="F23">
-        <f>$F$34*A23*A23*A23+$B$2</f>
-        <v>88190817.502668589</v>
-      </c>
-      <c r="G23">
-        <f>$G$34*LOG(A23)+$B$2</f>
         <v>254831404.97312865</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="B24">
         <v>193884360</v>
       </c>
       <c r="C24">
+        <f t="shared" si="4"/>
+        <v>195167066.32258075</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>84498349.306073278</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>139900656.48699272</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="1"/>
-        <v>195167066.32258075</v>
-      </c>
-      <c r="D24">
+        <v>100679333.37786581</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="2"/>
-        <v>84498349.306073278</v>
-      </c>
-      <c r="E24">
-        <f>$E$34*A24*A24+$B$2</f>
-        <v>139900656.48699272</v>
-      </c>
-      <c r="F24">
-        <f>$F$34*A24*A24*A24+$B$2</f>
-        <v>100679333.37786581</v>
-      </c>
-      <c r="G24">
-        <f>$G$34*LOG(A24)+$B$2</f>
         <v>257006643.22295034</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="B25">
         <v>200767056</v>
       </c>
       <c r="C25">
+        <f t="shared" si="4"/>
+        <v>203819888.06451625</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>96260080.658860952</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>152461204.17689908</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="1"/>
-        <v>203819888.06451625</v>
-      </c>
-      <c r="D25">
+        <v>114356374.19576383</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="2"/>
-        <v>96260080.658860952</v>
-      </c>
-      <c r="E25">
-        <f>$E$34*A25*A25+$B$2</f>
-        <v>152461204.17689908</v>
-      </c>
-      <c r="F25">
-        <f>$F$34*A25*A25*A25+$B$2</f>
-        <v>114356374.19576383</v>
-      </c>
-      <c r="G25">
-        <f>$G$34*LOG(A25)+$B$2</f>
         <v>259085171.63478401</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="B26">
         <v>213385577</v>
       </c>
       <c r="C26">
+        <f t="shared" si="4"/>
+        <v>212472709.80645174</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>109658983.92744611</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>165579998.43080124</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="1"/>
-        <v>212472709.80645174</v>
-      </c>
-      <c r="D26">
+        <v>129275963.81739454</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="2"/>
-        <v>109658983.92744611</v>
-      </c>
-      <c r="E26">
-        <f>$E$34*A26*A26+$B$2</f>
-        <v>165579998.43080124</v>
-      </c>
-      <c r="F26">
-        <f>$F$34*A26*A26*A26+$B$2</f>
-        <v>129275963.81739454</v>
-      </c>
-      <c r="G26">
-        <f>$G$34*LOG(A26)+$B$2</f>
         <v>261075224.73167047</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="B27">
         <v>217975938</v>
       </c>
       <c r="C27">
+        <f t="shared" si="4"/>
+        <v>221125531.54838723</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>124922944.93930438</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>179257039.24869925</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="1"/>
-        <v>221125531.54838723</v>
-      </c>
-      <c r="D27">
+        <v>145492126.10378975</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="2"/>
-        <v>124922944.93930438</v>
-      </c>
-      <c r="E27">
-        <f>$E$34*A27*A27+$B$2</f>
-        <v>179257039.24869925</v>
-      </c>
-      <c r="F27">
-        <f>$F$34*A27*A27*A27+$B$2</f>
-        <v>145492126.10378975</v>
-      </c>
-      <c r="G27">
-        <f>$G$34*LOG(A27)+$B$2</f>
         <v>262984028.12957531</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="B28">
         <v>229448995</v>
       </c>
       <c r="C28">
+        <f t="shared" si="4"/>
+        <v>229778353.29032272</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>142311570.04549423</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>193492326.63059312</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="1"/>
-        <v>229778353.29032272</v>
-      </c>
-      <c r="D28">
+        <v>163058884.91598132</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="2"/>
-        <v>142311570.04549423</v>
-      </c>
-      <c r="E28">
-        <f>$E$34*A28*A28+$B$2</f>
-        <v>193492326.63059312</v>
-      </c>
-      <c r="F28">
-        <f>$F$34*A28*A28*A28+$B$2</f>
-        <v>163058884.91598132</v>
-      </c>
-      <c r="G28">
-        <f>$G$34*LOG(A28)+$B$2</f>
         <v>264817956.9078002</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="B29">
         <v>237477843</v>
       </c>
       <c r="C29">
+        <f t="shared" si="4"/>
+        <v>238431175.03225821</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="5"/>
+        <v>162120601.45278853</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>208285860.5764828</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="1"/>
-        <v>238431175.03225821</v>
-      </c>
-      <c r="D29">
+        <v>182030264.11500117</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="2"/>
-        <v>162120601.45278853</v>
-      </c>
-      <c r="E29">
-        <f>$E$34*A29*A29+$B$2</f>
-        <v>208285860.5764828</v>
-      </c>
-      <c r="F29">
-        <f>$F$34*A29*A29*A29+$B$2</f>
-        <v>182030264.11500117</v>
-      </c>
-      <c r="G29">
-        <f>$G$34*LOG(A29)+$B$2</f>
         <v>266582664.07456928</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="B30">
         <v>242068204</v>
       </c>
       <c r="C30">
+        <f t="shared" si="4"/>
+        <v>247083996.7741937</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>184686947.14710623</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>223637641.08636835</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="1"/>
-        <v>247083996.7741937</v>
-      </c>
-      <c r="D30">
+        <v>202460287.56188112</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="2"/>
-        <v>184686947.14710623</v>
-      </c>
-      <c r="E30">
-        <f>$E$34*A30*A30+$B$2</f>
-        <v>223637641.08636835</v>
-      </c>
-      <c r="F30">
-        <f>$F$34*A30*A30*A30+$B$2</f>
-        <v>202460287.56188112</v>
-      </c>
-      <c r="G30">
-        <f>$G$34*LOG(A30)+$B$2</f>
         <v>268283185.65816599</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
       <c r="B31">
         <v>253541261</v>
       </c>
       <c r="C31">
+        <f t="shared" si="4"/>
+        <v>255736818.5161292</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="5"/>
+        <v>210394410.95616117</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>239547668.16024974</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="1"/>
-        <v>255736818.5161292</v>
-      </c>
-      <c r="D31">
+        <v>224402979.11765301</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="2"/>
-        <v>210394410.95616117</v>
-      </c>
-      <c r="E31">
-        <f>$E$34*A31*A31+$B$2</f>
-        <v>239547668.16024974</v>
-      </c>
-      <c r="F31">
-        <f>$F$34*A31*A31*A31+$B$2</f>
-        <v>224402979.11765301</v>
-      </c>
-      <c r="G31">
-        <f>$G$34*LOG(A31)+$B$2</f>
         <v>269924027.34853172</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="B32">
         <v>261569405</v>
       </c>
       <c r="C32">
+        <f t="shared" si="4"/>
+        <v>264389640.25806469</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="5"/>
+        <v>239680220.20707059</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>256015941.79812694</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="1"/>
-        <v>264389640.25806469</v>
-      </c>
-      <c r="D32">
+        <v>247912362.64334863</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="2"/>
-        <v>239680220.20707059</v>
-      </c>
-      <c r="E32">
-        <f>$E$34*A32*A32+$B$2</f>
-        <v>256015941.79812694</v>
-      </c>
-      <c r="F32">
-        <f>$F$34*A32*A32*A32+$B$2</f>
-        <v>247912362.64334863</v>
-      </c>
-      <c r="G32">
-        <f>$G$34*LOG(A32)+$B$2</f>
         <v>271509236.44459099</v>
       </c>
     </row>
@@ -68930,23 +68930,23 @@
         <v>273042462</v>
       </c>
       <c r="C33">
+        <f t="shared" si="4"/>
+        <v>273042462.00000018</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="5"/>
+        <v>273042461.99999917</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>273042462</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="1"/>
-        <v>273042462.00000018</v>
-      </c>
-      <c r="D33">
+        <v>273042462</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="2"/>
-        <v>273042461.99999917</v>
-      </c>
-      <c r="E33">
-        <f>$E$34*A33*A33+$B$2</f>
-        <v>273042462</v>
-      </c>
-      <c r="F33">
-        <f>$F$34*A33*A33*A33+$B$2</f>
-        <v>273042462</v>
-      </c>
-      <c r="G33">
-        <f>$G$34*LOG(A33)+$B$2</f>
         <v>273042462</v>
       </c>
     </row>
